--- a/Results/2012/Primaries/Republicans.xlsx
+++ b/Results/2012/Primaries/Republicans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroz\Desktop\usa\USA\Results\2012\Primaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A496BE6-9E95-4323-9304-8C58F05C4212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CD338C-9FFD-4E37-B13C-57F3B6EADDF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -446,9 +446,6 @@
   </si>
   <si>
     <t>totald</t>
-  </si>
-  <si>
-    <t>Iowa</t>
   </si>
 </sst>
 </file>
@@ -2332,11 +2329,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F35F74-FDAD-46CB-85ED-D8ECAAB7193A}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2405,506 +2402,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>19003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>19005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>19007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>19009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>19011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>19013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>19015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>19017</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>19019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>19021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>19023</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>19025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>19027</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>19029</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>19031</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>19033</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>19035</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>19037</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>19039</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>19041</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>19043</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>19045</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>19047</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>19049</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>19051</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>19053</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>19055</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>19057</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>19059</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>19061</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>19063</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>19065</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>19067</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>19069</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>19071</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>19073</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>19075</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>19077</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>19079</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>19081</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>19083</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>19085</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>19087</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>19089</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>19091</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>19093</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>19095</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>19097</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>19099</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>19101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>19103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>19105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>19107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>19109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>19111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>19113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>19115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>19117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>19119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>19121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
-        <v>19123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <v>19125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
-        <v>19127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
-        <v>19129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
-        <v>19131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
-        <v>19133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
-        <v>19135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>19137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>19139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>19141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
-        <v>19143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
-        <v>19145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
-        <v>19147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
-        <v>19149</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
-        <v>19151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
-        <v>19153</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
-        <v>19155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
-        <v>19157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
-        <v>19159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
-        <v>19161</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
-        <v>19163</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
-        <v>19165</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
-        <v>19167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
-        <v>19169</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
-        <v>19171</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
-        <v>19173</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
-        <v>19175</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
-        <v>19177</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
-        <v>19179</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
-        <v>19181</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
-        <v>19183</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
-        <v>19185</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
-        <v>19187</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
-        <v>19189</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
-        <v>19191</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
-        <v>19193</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
-        <v>19195</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
-        <v>19197</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{2427EFC4-D29E-4C50-A532-067749A8E5C3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
